--- a/Phân tích/Yêu cầu/Yêu cầu công nghệ.xlsx
+++ b/Phân tích/Yêu cầu/Yêu cầu công nghệ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\Yêu cầu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DA0CF6-D1C0-41FB-BE25-67E2B45C857F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE569984-1C81-4650-89EA-6EE2B20F6920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{C13770B4-7C34-48CA-A166-9E76870BA96C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C13770B4-7C34-48CA-A166-9E76870BA96C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Yêu cầu công nghệ </t>
   </si>
@@ -46,13 +46,31 @@
   </si>
   <si>
     <t>Khi sửa lỗi một chức năng không ảnh hưởng các chức năng khác</t>
+  </si>
+  <si>
+    <t>Số lượng user</t>
+  </si>
+  <si>
+    <t>Tránh mất dữ liệu</t>
+  </si>
+  <si>
+    <t>Tự động backup dữ liệu mỗi 12 tiếng.</t>
+  </si>
+  <si>
+    <t>30 users truy cập cùng lúc.</t>
+  </si>
+  <si>
+    <t>Thời gian cài đặt</t>
+  </si>
+  <si>
+    <t>Thời gian cài đặt không quá 2 tiếng.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,11 +89,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,21 +106,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,65 +468,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2630FDB5-9AC2-4AE8-AEF8-0A9C587B330A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="21.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
